--- a/Polls/Questions.xlsx
+++ b/Polls/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Python312\DSA\Polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5469081-E43F-49F4-997B-20CF82B3E2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3913EA2A-897B-4F2B-A916-ECC0889C0F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82FD96FC-DB93-4247-A716-27C37327DDD7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Question Name</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>a%x = b%x =&gt; x = abs(a - b) …..as (a -b) % x = 0</t>
+  </si>
+  <si>
+    <t>B. GCD Partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcd, __gcd(a[a1,a2,a3]) &lt;= __gcd(a[a1+a2,a3]) </t>
+  </si>
+  <si>
+    <t>B. Kill Demodogs</t>
+  </si>
+  <si>
+    <t>Handeling multiplication bigger then llmax</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA490B-5749-4155-92CA-1109757F670B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,6 +448,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
